--- a/biology/Botanique/Parc_Pierquin/Parc_Pierquin.xlsx
+++ b/biology/Botanique/Parc_Pierquin/Parc_Pierquin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc Pierquin est un parc de la ville de Charleville-Mézières.
@@ -512,9 +524,11 @@
           <t>Origine du parc</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Pierquin était un ami d'adolescence d'Arthur Rimbaud qui avait fait construire un chalet au cœur de Charleville. Il y avait pris sa retraite dès 1904. Il se consacra dès lors à sa passion pour sa région et pour l'histoire[1],[2]. En 1984, la ville de Charleville-Mézières fit l'acquisition de la maison de Louis Pierquin et de la propriété qui la jouxtait, de plus d'un hectare, avec la pelouse en cuvette[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Pierquin était un ami d'adolescence d'Arthur Rimbaud qui avait fait construire un chalet au cœur de Charleville. Il y avait pris sa retraite dès 1904. Il se consacra dès lors à sa passion pour sa région et pour l'histoire,. En 1984, la ville de Charleville-Mézières fit l'acquisition de la maison de Louis Pierquin et de la propriété qui la jouxtait, de plus d'un hectare, avec la pelouse en cuvette.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est très discret : il n'est pas visible des avenues, entouré aujourd'hui de maisons et d'immeubles, inséré dans un quadrilatère constitué par la rue Jean-Jacques Rousseau, l'avenue Charles Boutet, l'avenue François Mitterrand, et la rue des pépinières. Il y a trois entrées : un passage via l'avenue Charles Boutet, la rue Daniel Mayer via l'avenue François Mitterrand, ou un passage rue Jean-Jacques Rousseau.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terrain d'origine est devenu  un parc ouvert au public, conservant une partie des arbres implantés par Louis Pierquin (ginkgo biloba, tulipier de virginie, prunier, quetschier, néflier, ..) et introduisant de nouvelles espèces (oranger des Osages, savonnier, buisson d'elaeagnacées, ..)[2] 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terrain d'origine est devenu  un parc ouvert au public, conservant une partie des arbres implantés par Louis Pierquin (ginkgo biloba, tulipier de virginie, prunier, quetschier, néflier, ..) et introduisant de nouvelles espèces (oranger des Osages, savonnier, buisson d'elaeagnacées, ..) 
 </t>
         </is>
       </c>
